--- a/swing_strategy_vix_sim_20260113.xlsx
+++ b/swing_strategy_vix_sim_20260113.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W38"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,55 +558,55 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DAVE</t>
+          <t>WWD</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>239.35</v>
+        <v>326.04</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>235.76 - 240.79</t>
+          <t>321.15 - 328.00</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>240.79</v>
+        <v>328</v>
       </c>
       <c r="F2" t="n">
-        <v>232.17</v>
+        <v>316.26</v>
       </c>
       <c r="G2" t="n">
-        <v>287.22</v>
+        <v>391.25</v>
       </c>
       <c r="H2" t="n">
-        <v>93.16</v>
+        <v>86.61</v>
       </c>
       <c r="I2" t="n">
         <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>196.58</v>
+        <v>0.65</v>
       </c>
       <c r="K2" t="n">
-        <v>210.33</v>
+        <v>0.64</v>
       </c>
       <c r="L2" t="n">
-        <v>0.63</v>
+        <v>0.16</v>
       </c>
       <c r="M2" t="n">
-        <v>0.66</v>
+        <v>0.19</v>
       </c>
       <c r="N2" t="n">
-        <v>12190000</v>
+        <v>59996788</v>
       </c>
       <c r="O2" t="n">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="P2" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="Q2" t="n">
-        <v>3088248576</v>
+        <v>18681800704</v>
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>range</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -645,24 +645,24 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>129.95</v>
+        <v>134.24</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>128.00 - 130.73</t>
+          <t>132.23 - 135.05</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>130.73</v>
+        <v>135.05</v>
       </c>
       <c r="F3" t="n">
-        <v>126.05</v>
+        <v>130.22</v>
       </c>
       <c r="G3" t="n">
-        <v>155.94</v>
+        <v>161.09</v>
       </c>
       <c r="H3" t="n">
-        <v>85.06</v>
+        <v>85.62</v>
       </c>
       <c r="I3" t="n">
         <v>5</v>
@@ -723,64 +723,64 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>369.81</v>
+        <v>184.94</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>364.26 - 372.03</t>
+          <t>182.17 - 186.05</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>372.03</v>
+        <v>186.05</v>
       </c>
       <c r="F4" t="n">
-        <v>358.72</v>
+        <v>179.39</v>
       </c>
       <c r="G4" t="n">
-        <v>443.77</v>
+        <v>221.93</v>
       </c>
       <c r="H4" t="n">
-        <v>82.34</v>
+        <v>69.36</v>
       </c>
       <c r="I4" t="n">
         <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4</v>
+        <v>0.65</v>
       </c>
       <c r="K4" t="n">
-        <v>0.44</v>
+        <v>0.67</v>
       </c>
       <c r="L4" t="n">
-        <v>0.16</v>
+        <v>0.62</v>
       </c>
       <c r="M4" t="n">
-        <v>0.34</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>38759382</v>
+        <v>24305000000</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>0.47</v>
+        <v>0.64</v>
       </c>
       <c r="Q4" t="n">
-        <v>22025291776</v>
+        <v>4548506681344</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>控盘减弱预警</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>downtrend</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -815,55 +815,55 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>184.86</v>
+        <v>207.69</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>182.09 - 185.97</t>
+          <t>204.57 - 208.94</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>185.97</v>
+        <v>208.94</v>
       </c>
       <c r="F5" t="n">
-        <v>179.32</v>
+        <v>201.46</v>
       </c>
       <c r="G5" t="n">
-        <v>221.83</v>
+        <v>249.23</v>
       </c>
       <c r="H5" t="n">
-        <v>69.15000000000001</v>
+        <v>49.3</v>
       </c>
       <c r="I5" t="n">
         <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="K5" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="L5" t="n">
-        <v>0.62</v>
+        <v>0.36</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>0.05</v>
       </c>
       <c r="N5" t="n">
-        <v>24305000000</v>
+        <v>1628041540</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="P5" t="n">
-        <v>0.64</v>
+        <v>0.51</v>
       </c>
       <c r="Q5" t="n">
-        <v>4548506681344</v>
+        <v>340081606656</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -885,76 +885,76 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>range</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>203.17</v>
+        <v>96.59</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>200.12 - 204.39</t>
+          <t>95.14 - 97.17</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>204.39</v>
+        <v>97.17</v>
       </c>
       <c r="F6" t="n">
-        <v>197.08</v>
+        <v>93.69</v>
       </c>
       <c r="G6" t="n">
-        <v>243.8</v>
+        <v>115.91</v>
       </c>
       <c r="H6" t="n">
-        <v>39.13</v>
+        <v>97.67</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>0.61</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6</v>
+        <v>1.47</v>
       </c>
       <c r="L6" t="n">
-        <v>0.36</v>
+        <v>0.62</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05</v>
+        <v>0.39</v>
       </c>
       <c r="N6" t="n">
-        <v>1628041540</v>
+        <v>504888275</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="P6" t="n">
-        <v>0.51</v>
+        <v>0.41</v>
       </c>
       <c r="Q6" t="n">
-        <v>340081606656</v>
+        <v>46959661056</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>控盘减弱预警</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -984,60 +984,60 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>CDE</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>92.25</v>
+        <v>21.61</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>90.87 - 92.80</t>
+          <t>21.29 - 21.74</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>92.8</v>
+        <v>21.74</v>
       </c>
       <c r="F7" t="n">
-        <v>89.48</v>
+        <v>20.96</v>
       </c>
       <c r="G7" t="n">
-        <v>110.7</v>
+        <v>25.93</v>
       </c>
       <c r="H7" t="n">
-        <v>97.45999999999999</v>
+        <v>96.81</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>4.47</v>
       </c>
       <c r="K7" t="n">
-        <v>1.47</v>
+        <v>2.42</v>
       </c>
       <c r="L7" t="n">
-        <v>0.62</v>
+        <v>0.77</v>
       </c>
       <c r="M7" t="n">
-        <v>0.39</v>
+        <v>0.2</v>
       </c>
       <c r="N7" t="n">
-        <v>504888275</v>
+        <v>642106588</v>
       </c>
       <c r="O7" t="n">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="P7" t="n">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="Q7" t="n">
-        <v>46959661056</v>
+        <v>14067499008</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -1059,72 +1059,72 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>range</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>多头拥挤</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CDE</t>
+          <t>TFPM</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20.4</v>
+        <v>36.13</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20.09 - 20.52</t>
+          <t>35.59 - 36.35</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>20.52</v>
+        <v>36.35</v>
       </c>
       <c r="F8" t="n">
-        <v>19.79</v>
+        <v>35.05</v>
       </c>
       <c r="G8" t="n">
-        <v>24.48</v>
+        <v>43.36</v>
       </c>
       <c r="H8" t="n">
-        <v>96.66</v>
+        <v>91.89</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>4.47</v>
+        <v>1.09</v>
       </c>
       <c r="K8" t="n">
-        <v>2.42</v>
+        <v>1.04</v>
       </c>
       <c r="L8" t="n">
-        <v>0.77</v>
+        <v>0.27</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="N8" t="n">
-        <v>642106588</v>
+        <v>206561506</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="P8" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="Q8" t="n">
-        <v>14067499008</v>
+        <v>7185598976</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -1141,17 +1141,17 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>控盘减弱预警</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>range</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>多头拥挤</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -1163,61 +1163,57 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TFPM</t>
+          <t>AGI</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>35.1</v>
+        <v>42.56</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>34.57 - 35.31</t>
+          <t>41.92 - 42.82</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>35.31</v>
+        <v>42.82</v>
       </c>
       <c r="F9" t="n">
-        <v>34.05</v>
+        <v>41.29</v>
       </c>
       <c r="G9" t="n">
-        <v>42.12</v>
+        <v>51.07</v>
       </c>
       <c r="H9" t="n">
-        <v>91.97</v>
+        <v>91.64</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>1.09</v>
+        <v>2.27</v>
       </c>
       <c r="K9" t="n">
-        <v>1.04</v>
+        <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="M9" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="N9" t="n">
-        <v>206561506</v>
+        <v>419834202</v>
       </c>
       <c r="O9" t="n">
-        <v>0.89</v>
+        <v>0.73</v>
       </c>
       <c r="P9" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="Q9" t="n">
-        <v>7185598976</v>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Basic Materials</t>
-        </is>
-      </c>
+        <v>17116641280</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr">
         <is>
           <t>仅跟踪</t>
@@ -1228,12 +1224,12 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>控盘减弱预警</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1250,57 +1246,61 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>CVNA</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>647.72</v>
+        <v>464.52</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>638.00 - 651.61</t>
+          <t>457.55 - 467.31</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>651.61</v>
+        <v>467.31</v>
       </c>
       <c r="F10" t="n">
-        <v>628.29</v>
+        <v>450.59</v>
       </c>
       <c r="G10" t="n">
-        <v>777.26</v>
+        <v>557.42</v>
       </c>
       <c r="H10" t="n">
-        <v>91.33</v>
+        <v>91.51000000000001</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>0.92</v>
+        <v>0.78</v>
       </c>
       <c r="K10" t="n">
-        <v>0.96</v>
+        <v>0.61</v>
       </c>
       <c r="L10" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="M10" t="n">
         <v>0.68</v>
       </c>
-      <c r="M10" t="n">
-        <v>2.42</v>
-      </c>
       <c r="N10" t="n">
-        <v>307597000</v>
+        <v>116947000</v>
       </c>
       <c r="O10" t="n">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="P10" t="n">
-        <v>0.74</v>
+        <v>0.09</v>
       </c>
       <c r="Q10" t="n">
-        <v>241588240384</v>
-      </c>
-      <c r="R10" t="inlineStr"/>
+        <v>93919256576</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
       <c r="S10" t="inlineStr">
         <is>
           <t>仅跟踪</t>
@@ -1311,12 +1311,12 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>底部试探</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -1328,66 +1328,62 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>APP</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>329.14</v>
+        <v>658.65</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>324.20 - 331.11</t>
+          <t>648.77 - 662.60</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>331.11</v>
+        <v>662.6</v>
       </c>
       <c r="F11" t="n">
-        <v>319.26</v>
+        <v>638.89</v>
       </c>
       <c r="G11" t="n">
-        <v>394.97</v>
+        <v>790.38</v>
       </c>
       <c r="H11" t="n">
-        <v>90.19</v>
+        <v>91.01000000000001</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>0.33</v>
+        <v>0.92</v>
       </c>
       <c r="K11" t="n">
-        <v>0.35</v>
+        <v>0.96</v>
       </c>
       <c r="L11" t="n">
-        <v>0.16</v>
+        <v>0.68</v>
       </c>
       <c r="M11" t="n">
-        <v>0.35</v>
+        <v>2.42</v>
       </c>
       <c r="N11" t="n">
-        <v>5407000000</v>
+        <v>307597000</v>
       </c>
       <c r="O11" t="n">
-        <v>0.61</v>
+        <v>0.83</v>
       </c>
       <c r="P11" t="n">
-        <v>0.32</v>
+        <v>0.74</v>
       </c>
       <c r="Q11" t="n">
-        <v>4004106469376</v>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
+        <v>241588240384</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr">
         <is>
           <t>仅跟踪</t>
@@ -1403,7 +1399,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>trend_pullback</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -1420,61 +1416,57 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>VIK</t>
+          <t>AMG</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>71.95</v>
+        <v>312.29</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>70.87 - 72.38</t>
+          <t>307.61 - 314.16</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>72.38</v>
+        <v>314.16</v>
       </c>
       <c r="F12" t="n">
-        <v>69.79000000000001</v>
+        <v>302.92</v>
       </c>
       <c r="G12" t="n">
-        <v>86.34</v>
+        <v>374.75</v>
       </c>
       <c r="H12" t="n">
-        <v>85.20999999999999</v>
+        <v>87.7</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>0.35</v>
+        <v>0.72</v>
       </c>
       <c r="K12" t="n">
-        <v>0.32</v>
+        <v>0.82</v>
       </c>
       <c r="L12" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="M12" t="n">
-        <v>86.04000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="N12" t="n">
-        <v>315839182</v>
+        <v>28128908</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.19</v>
+        <v>0.17</v>
       </c>
       <c r="Q12" t="n">
-        <v>32130695168</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
+        <v>8411959808</v>
+      </c>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr">
         <is>
           <t>仅跟踪</t>
@@ -1490,7 +1482,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -1511,24 +1503,24 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>120.91</v>
+        <v>123</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>119.10 - 121.64</t>
+          <t>121.16 - 123.74</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>121.64</v>
+        <v>123.74</v>
       </c>
       <c r="F13" t="n">
-        <v>117.29</v>
+        <v>119.31</v>
       </c>
       <c r="G13" t="n">
-        <v>145.09</v>
+        <v>147.6</v>
       </c>
       <c r="H13" t="n">
-        <v>79.06</v>
+        <v>79.04000000000001</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
@@ -1568,7 +1560,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>控盘减弱预警</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1594,24 +1586,24 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>199.63</v>
+        <v>199.09</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>196.64 - 200.83</t>
+          <t>196.10 - 200.28</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>200.83</v>
+        <v>200.28</v>
       </c>
       <c r="F14" t="n">
-        <v>193.64</v>
+        <v>193.11</v>
       </c>
       <c r="G14" t="n">
-        <v>239.56</v>
+        <v>238.91</v>
       </c>
       <c r="H14" t="n">
-        <v>76.23</v>
+        <v>74.09</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
@@ -1677,24 +1669,24 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>31.79</v>
+        <v>31.82</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>31.31 - 31.98</t>
+          <t>31.34 - 32.01</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>31.98</v>
+        <v>32.01</v>
       </c>
       <c r="F15" t="n">
-        <v>30.84</v>
+        <v>30.86</v>
       </c>
       <c r="G15" t="n">
-        <v>38.15</v>
+        <v>38.18</v>
       </c>
       <c r="H15" t="n">
-        <v>73</v>
+        <v>73.63</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
@@ -1756,55 +1748,55 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EMA</t>
+          <t>CNO</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>48.89</v>
+        <v>42.94</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>48.16 - 49.18</t>
+          <t>42.30 - 43.20</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>49.18</v>
+        <v>43.2</v>
       </c>
       <c r="F16" t="n">
-        <v>47.42</v>
+        <v>41.65</v>
       </c>
       <c r="G16" t="n">
-        <v>58.67</v>
+        <v>51.53</v>
       </c>
       <c r="H16" t="n">
-        <v>70.84999999999999</v>
+        <v>67.03</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>10.23</v>
+        <v>1.48</v>
       </c>
       <c r="K16" t="n">
-        <v>75</v>
+        <v>1.7</v>
       </c>
       <c r="L16" t="n">
-        <v>0.17</v>
+        <v>0.05</v>
       </c>
       <c r="M16" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="N16" t="n">
-        <v>301745499</v>
+        <v>95353512</v>
       </c>
       <c r="O16" t="n">
-        <v>0.59</v>
+        <v>0.97</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.8100000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="Q16" t="n">
-        <v>14809669632</v>
+        <v>4226232320</v>
       </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr">
@@ -1817,12 +1809,12 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>强趋势回撤</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>range</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -1839,55 +1831,55 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>SII</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>64.23</v>
+        <v>107.56</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>63.27 - 64.62</t>
+          <t>105.95 - 108.21</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>64.62</v>
+        <v>108.21</v>
       </c>
       <c r="F17" t="n">
-        <v>62.31</v>
+        <v>104.34</v>
       </c>
       <c r="G17" t="n">
-        <v>77.08</v>
+        <v>129.07</v>
       </c>
       <c r="H17" t="n">
-        <v>71.28</v>
+        <v>93.17</v>
       </c>
       <c r="I17" t="n">
         <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="K17" t="n">
-        <v>0.48</v>
+        <v>0.04</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="M17" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="N17" t="n">
-        <v>111765032</v>
+        <v>25786258</v>
       </c>
       <c r="O17" t="n">
-        <v>0.91</v>
+        <v>0.57</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.08</v>
+        <v>1.56</v>
       </c>
       <c r="Q17" t="n">
-        <v>7175314944</v>
+        <v>2585072384</v>
       </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
@@ -1900,12 +1892,12 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>控盘减弱预警</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -1922,55 +1914,55 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>JHG</t>
+          <t>IVZ</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>47.76</v>
+        <v>28.76</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>47.04 - 48.05</t>
+          <t>28.33 - 28.93</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>48.05</v>
+        <v>28.93</v>
       </c>
       <c r="F18" t="n">
-        <v>46.33</v>
+        <v>27.89</v>
       </c>
       <c r="G18" t="n">
-        <v>57.31</v>
+        <v>34.51</v>
       </c>
       <c r="H18" t="n">
-        <v>68.76000000000001</v>
+        <v>88.89</v>
       </c>
       <c r="I18" t="n">
         <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>4.2</v>
+        <v>2.03</v>
       </c>
       <c r="K18" t="n">
-        <v>4.41</v>
+        <v>4.5</v>
       </c>
       <c r="L18" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="M18" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N18" t="n">
-        <v>149399212</v>
+        <v>445092900</v>
       </c>
       <c r="O18" t="n">
         <v>0.95</v>
       </c>
       <c r="P18" t="n">
-        <v>0.86</v>
+        <v>0.55</v>
       </c>
       <c r="Q18" t="n">
-        <v>7359256576</v>
+        <v>12023183360</v>
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
@@ -2000,66 +1992,62 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>NVMI</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>198.52</v>
+        <v>403.62</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>195.54 - 199.71</t>
+          <t>397.57 - 406.04</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>199.71</v>
+        <v>406.04</v>
       </c>
       <c r="F19" t="n">
-        <v>192.56</v>
+        <v>391.51</v>
       </c>
       <c r="G19" t="n">
-        <v>238.22</v>
+        <v>484.34</v>
       </c>
       <c r="H19" t="n">
-        <v>42.63</v>
+        <v>88.28</v>
       </c>
       <c r="I19" t="n">
         <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>0.95</v>
+        <v>0.2</v>
       </c>
       <c r="K19" t="n">
-        <v>0.91</v>
+        <v>0.19</v>
       </c>
       <c r="L19" t="n">
-        <v>0.14</v>
+        <v>0.26</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="N19" t="n">
-        <v>2873130000</v>
+        <v>29652464</v>
       </c>
       <c r="O19" t="n">
-        <v>0.45</v>
+        <v>0.78</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.46</v>
+        <v>0.67</v>
       </c>
       <c r="Q19" t="n">
-        <v>590313291776</v>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+        <v>9812593664</v>
+      </c>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr">
         <is>
           <t>仅跟踪</t>
@@ -2075,7 +2063,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>downtrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -2092,57 +2080,61 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>IAG</t>
+          <t>INVX</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17.21</v>
+        <v>23.56</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>16.95 - 17.31</t>
+          <t>23.21 - 23.70</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>17.31</v>
+        <v>23.7</v>
       </c>
       <c r="F20" t="n">
-        <v>16.69</v>
+        <v>22.85</v>
       </c>
       <c r="G20" t="n">
-        <v>20.65</v>
+        <v>28.27</v>
       </c>
       <c r="H20" t="n">
-        <v>96.95</v>
+        <v>85.18000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.76</v>
+        <v>-0.52</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.77</v>
+        <v>-0.71</v>
       </c>
       <c r="L20" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="M20" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="N20" t="n">
-        <v>592641204</v>
+        <v>68927791</v>
       </c>
       <c r="O20" t="n">
-        <v>0.77</v>
+        <v>1.05</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.46</v>
+        <v>0.65</v>
       </c>
       <c r="Q20" t="n">
-        <v>10506586112</v>
-      </c>
-      <c r="R20" t="inlineStr"/>
+        <v>1594299776</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
       <c r="S20" t="inlineStr">
         <is>
           <t>仅跟踪</t>
@@ -2158,7 +2150,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -2175,61 +2167,57 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GCT</t>
+          <t>CAE</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>41.8</v>
+        <v>33.17</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>41.17 - 42.05</t>
+          <t>32.67 - 33.37</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>42.05</v>
+        <v>33.37</v>
       </c>
       <c r="F21" t="n">
-        <v>40.55</v>
+        <v>32.18</v>
       </c>
       <c r="G21" t="n">
-        <v>50.16</v>
+        <v>39.8</v>
       </c>
       <c r="H21" t="n">
-        <v>93.28</v>
+        <v>76.67</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.09</v>
+        <v>0.41</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01</v>
+        <v>0.44</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3</v>
+        <v>0.09</v>
       </c>
       <c r="N21" t="n">
-        <v>28980012</v>
+        <v>321548127</v>
       </c>
       <c r="O21" t="n">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
       <c r="P21" t="n">
-        <v>0.72</v>
+        <v>0.55</v>
       </c>
       <c r="Q21" t="n">
-        <v>1569130624</v>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+        <v>10123962368</v>
+      </c>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr">
         <is>
           <t>仅跟踪</t>
@@ -2240,7 +2228,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>控盘减弱预警</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -2262,55 +2250,55 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>POWL</t>
+          <t>FHI</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>365.49</v>
+        <v>52.83</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>360.01 - 367.68</t>
+          <t>52.04 - 53.15</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>367.68</v>
+        <v>53.15</v>
       </c>
       <c r="F22" t="n">
-        <v>354.52</v>
+        <v>51.25</v>
       </c>
       <c r="G22" t="n">
-        <v>438.59</v>
+        <v>63.4</v>
       </c>
       <c r="H22" t="n">
-        <v>87.34</v>
+        <v>72.92</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="K22" t="n">
-        <v>0.12</v>
+        <v>0.26</v>
       </c>
       <c r="L22" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="M22" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="N22" t="n">
-        <v>12092083</v>
+        <v>77537867</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="P22" t="n">
-        <v>0.68</v>
+        <v>1.29</v>
       </c>
       <c r="Q22" t="n">
-        <v>4121707264</v>
+        <v>4213838336</v>
       </c>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
@@ -2323,12 +2311,12 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>控盘减弱预警</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>range</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -2345,55 +2333,55 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NSSC</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>42.15</v>
+        <v>64.25</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>41.52 - 42.40</t>
+          <t>63.29 - 64.64</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>42.4</v>
+        <v>64.64</v>
       </c>
       <c r="F23" t="n">
-        <v>40.88</v>
+        <v>62.33</v>
       </c>
       <c r="G23" t="n">
-        <v>50.58</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>74.02</v>
+        <v>70.7</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>0.09</v>
+        <v>0.41</v>
       </c>
       <c r="K23" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M23" t="n">
         <v>0.13</v>
       </c>
-      <c r="L23" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.25</v>
-      </c>
       <c r="N23" t="n">
-        <v>35664324</v>
+        <v>111765032</v>
       </c>
       <c r="O23" t="n">
         <v>0.91</v>
       </c>
       <c r="P23" t="n">
-        <v>0.64</v>
+        <v>-1.08</v>
       </c>
       <c r="Q23" t="n">
-        <v>1525006464</v>
+        <v>7175314944</v>
       </c>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr">
@@ -2406,12 +2394,12 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>控盘减弱预警</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>range</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -2428,55 +2416,55 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>NDAQ</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>217.26</v>
+        <v>99.42</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>214.00 - 218.56</t>
+          <t>97.93 - 100.02</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>218.56</v>
+        <v>100.02</v>
       </c>
       <c r="F24" t="n">
-        <v>210.74</v>
+        <v>96.44</v>
       </c>
       <c r="G24" t="n">
-        <v>260.71</v>
+        <v>119.3</v>
       </c>
       <c r="H24" t="n">
-        <v>91.84999999999999</v>
+        <v>70.55</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.18</v>
+        <v>0.38</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.16</v>
+        <v>0.38</v>
       </c>
       <c r="L24" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="M24" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="N24" t="n">
-        <v>156608303</v>
+        <v>570995433</v>
       </c>
       <c r="O24" t="n">
-        <v>1.07</v>
+        <v>0.86</v>
       </c>
       <c r="P24" t="n">
-        <v>0.48</v>
+        <v>0.77</v>
       </c>
       <c r="Q24" t="n">
-        <v>31639726080</v>
+        <v>57006559232</v>
       </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
@@ -2511,61 +2499,57 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CMI</t>
+          <t>HRMY</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>552.09</v>
+        <v>38.27</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>543.81 - 555.40</t>
+          <t>37.70 - 38.50</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>555.4</v>
+        <v>38.5</v>
       </c>
       <c r="F25" t="n">
-        <v>535.52</v>
+        <v>37.12</v>
       </c>
       <c r="G25" t="n">
-        <v>662.51</v>
+        <v>45.92</v>
       </c>
       <c r="H25" t="n">
-        <v>87.63</v>
+        <v>68.41</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.34</v>
+        <v>0.1</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.34</v>
+        <v>0.1</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.02</v>
+        <v>0.29</v>
       </c>
       <c r="M25" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="N25" t="n">
-        <v>138036253</v>
+        <v>57596358</v>
       </c>
       <c r="O25" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="P25" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="Q25" t="n">
-        <v>75010277376</v>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
+        <v>2216883968</v>
+      </c>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr">
         <is>
           <t>仅跟踪</t>
@@ -2576,12 +2560,12 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>控盘减弱预警</t>
+          <t>底部试探</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>trend_pullback</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -2598,61 +2582,57 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>JHG</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>132.38</v>
+        <v>47.95</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>130.39 - 133.17</t>
+          <t>47.23 - 48.24</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>133.17</v>
+        <v>48.24</v>
       </c>
       <c r="F26" t="n">
-        <v>128.4</v>
+        <v>46.51</v>
       </c>
       <c r="G26" t="n">
-        <v>158.86</v>
+        <v>57.54</v>
       </c>
       <c r="H26" t="n">
-        <v>87.26000000000001</v>
+        <v>68.27</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>0.05</v>
+        <v>4.2</v>
       </c>
       <c r="K26" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M26" t="n">
         <v>0.11</v>
       </c>
-      <c r="L26" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N26" t="n">
-        <v>198853187</v>
+        <v>149399212</v>
       </c>
       <c r="O26" t="n">
-        <v>1.16</v>
+        <v>0.95</v>
       </c>
       <c r="P26" t="n">
-        <v>0.61</v>
+        <v>0.86</v>
       </c>
       <c r="Q26" t="n">
-        <v>27245268992</v>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>Consumer Defensive</t>
-        </is>
-      </c>
+        <v>7359256576</v>
+      </c>
+      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr">
         <is>
           <t>仅跟踪</t>
@@ -2663,7 +2643,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>控盘减弱预警</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2680,62 +2660,66 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GSL</t>
+          <t>ORCL</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>35.7</v>
+        <v>204.68</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>35.16 - 35.91</t>
+          <t>201.61 - 205.91</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>35.91</v>
+        <v>205.91</v>
       </c>
       <c r="F27" t="n">
-        <v>34.62</v>
+        <v>198.54</v>
       </c>
       <c r="G27" t="n">
-        <v>42.84</v>
+        <v>245.62</v>
       </c>
       <c r="H27" t="n">
-        <v>86.36</v>
+        <v>46.78</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>0.17</v>
+        <v>0.95</v>
       </c>
       <c r="K27" t="n">
-        <v>0.16</v>
+        <v>0.91</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="M27" t="n">
-        <v>0.26</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N27" t="n">
-        <v>35770652</v>
+        <v>2873130000</v>
       </c>
       <c r="O27" t="n">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="P27" t="n">
-        <v>0.17</v>
+        <v>-0.46</v>
       </c>
       <c r="Q27" t="n">
-        <v>1238737664</v>
-      </c>
-      <c r="R27" t="inlineStr"/>
+        <v>590313291776</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="S27" t="inlineStr">
         <is>
           <t>仅跟踪</t>
@@ -2746,12 +2730,12 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>控盘减弱预警</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>downtrend</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -2768,61 +2752,57 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IAG</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>204.1</v>
+        <v>17.8</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>201.04 - 205.32</t>
+          <t>17.53 - 17.91</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>205.32</v>
+        <v>17.91</v>
       </c>
       <c r="F28" t="n">
-        <v>197.97</v>
+        <v>17.27</v>
       </c>
       <c r="G28" t="n">
-        <v>244.92</v>
+        <v>21.36</v>
       </c>
       <c r="H28" t="n">
-        <v>79.43000000000001</v>
+        <v>96.95999999999999</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.53</v>
+        <v>-0.76</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.51</v>
+        <v>-0.77</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.09</v>
+        <v>0.61</v>
       </c>
       <c r="M28" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="N28" t="n">
-        <v>250106129</v>
+        <v>592641204</v>
       </c>
       <c r="O28" t="n">
-        <v>1.01</v>
+        <v>0.77</v>
       </c>
       <c r="P28" t="n">
-        <v>0.8</v>
+        <v>-0.46</v>
       </c>
       <c r="Q28" t="n">
-        <v>51089178624</v>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
+        <v>10506586112</v>
+      </c>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr">
         <is>
           <t>仅跟踪</t>
@@ -2833,12 +2813,12 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>控盘减弱预警</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -2855,55 +2835,55 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TXNM</t>
+          <t>WCC</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>58.95</v>
+        <v>273.58</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>58.07 - 59.30</t>
+          <t>269.48 - 275.22</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>59.3</v>
+        <v>275.22</v>
       </c>
       <c r="F29" t="n">
-        <v>57.18</v>
+        <v>265.37</v>
       </c>
       <c r="G29" t="n">
-        <v>70.73999999999999</v>
+        <v>328.3</v>
       </c>
       <c r="H29" t="n">
-        <v>67.81</v>
+        <v>83.20999999999999</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="K29" t="n">
         <v>-0</v>
       </c>
-      <c r="K29" t="n">
-        <v>-0.16</v>
-      </c>
       <c r="L29" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="M29" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="N29" t="n">
-        <v>108921356</v>
+        <v>48646230</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="P29" t="n">
-        <v>-1.32</v>
+        <v>1.05</v>
       </c>
       <c r="Q29" t="n">
-        <v>6426360320</v>
+        <v>12358870016</v>
       </c>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr">
@@ -2916,7 +2896,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>底部试探</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2938,55 +2918,55 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ZIM</t>
+          <t>SHOP</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>22.4</v>
+        <v>167.93</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>22.06 - 22.53</t>
+          <t>165.41 - 168.94</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>22.53</v>
+        <v>168.94</v>
       </c>
       <c r="F30" t="n">
-        <v>21.72</v>
+        <v>162.89</v>
       </c>
       <c r="G30" t="n">
-        <v>26.88</v>
+        <v>201.52</v>
       </c>
       <c r="H30" t="n">
-        <v>85.29000000000001</v>
+        <v>83.13</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.89</v>
+        <v>-0.68</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.89</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.36</v>
+        <v>0.32</v>
       </c>
       <c r="M30" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="N30" t="n">
-        <v>120457510</v>
+        <v>1222600912</v>
       </c>
       <c r="O30" t="n">
-        <v>0.41</v>
+        <v>0.74</v>
       </c>
       <c r="P30" t="n">
         <v>0.61</v>
       </c>
       <c r="Q30" t="n">
-        <v>2538039808</v>
+        <v>222393827328</v>
       </c>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr">
@@ -2999,12 +2979,12 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>控盘减弱预警</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>range</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -3016,66 +2996,62 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BABA</t>
+          <t>CAAP</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>150.96</v>
+        <v>26.83</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>148.70 - 151.87</t>
+          <t>26.43 - 26.99</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>151.87</v>
+        <v>26.99</v>
       </c>
       <c r="F31" t="n">
-        <v>146.44</v>
+        <v>26.02</v>
       </c>
       <c r="G31" t="n">
-        <v>181.15</v>
+        <v>32.2</v>
       </c>
       <c r="H31" t="n">
-        <v>25.51</v>
+        <v>82.58</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.52</v>
+        <v>2.75</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.52</v>
+        <v>2.78</v>
       </c>
       <c r="L31" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="M31" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="N31" t="n">
-        <v>2387324434</v>
+        <v>163117761</v>
       </c>
       <c r="O31" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.38</v>
+        <v>1.17</v>
       </c>
       <c r="Q31" t="n">
-        <v>398893252608</v>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
+        <v>4265529344</v>
+      </c>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr">
         <is>
           <t>仅跟踪</t>
@@ -3091,12 +3067,12 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -3108,77 +3084,77 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>NVT</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>108.99</v>
+        <v>106.39</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>107.36 - 109.64</t>
+          <t>104.79 - 107.03</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>109.64</v>
+        <v>107.03</v>
       </c>
       <c r="F32" t="n">
-        <v>105.72</v>
+        <v>103.2</v>
       </c>
       <c r="G32" t="n">
-        <v>130.79</v>
+        <v>127.67</v>
       </c>
       <c r="H32" t="n">
-        <v>95.47</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N32" t="n">
+        <v>161359550</v>
+      </c>
+      <c r="O32" t="n">
         <v>0.99</v>
       </c>
-      <c r="K32" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1091262981</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0.8</v>
-      </c>
       <c r="P32" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="Q32" t="n">
-        <v>119088422912</v>
+        <v>17275961344</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>允许建仓</t>
+          <t>仅跟踪</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>明确吸筹</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
@@ -3195,77 +3171,73 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ORLA</t>
+          <t>NSSC</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>14.21</v>
+        <v>42.42</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>14.00 - 14.30</t>
+          <t>41.78 - 42.67</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>14.3</v>
+        <v>42.67</v>
       </c>
       <c r="F33" t="n">
-        <v>13.79</v>
+        <v>41.14</v>
       </c>
       <c r="G33" t="n">
-        <v>17.05</v>
+        <v>50.9</v>
       </c>
       <c r="H33" t="n">
-        <v>92.64</v>
+        <v>73.23</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>1.33</v>
+        <v>0.09</v>
       </c>
       <c r="K33" t="n">
-        <v>1.33</v>
+        <v>0.13</v>
       </c>
       <c r="L33" t="n">
-        <v>1.77</v>
+        <v>0.12</v>
       </c>
       <c r="M33" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="N33" t="n">
-        <v>339896220</v>
+        <v>35664324</v>
       </c>
       <c r="O33" t="n">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="P33" t="n">
-        <v>0.74</v>
+        <v>0.64</v>
       </c>
       <c r="Q33" t="n">
-        <v>4753448448</v>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Basic Materials</t>
-        </is>
-      </c>
+        <v>1525006464</v>
+      </c>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr">
         <is>
-          <t>允许建仓</t>
+          <t>仅跟踪</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>明确吸筹</t>
+          <t>底部试探</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>range</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
@@ -3282,68 +3254,68 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>KALU</t>
+          <t>KWR</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>123.07</v>
+        <v>151.71</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>121.22 - 123.81</t>
+          <t>149.43 - 152.62</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>123.81</v>
+        <v>152.62</v>
       </c>
       <c r="F34" t="n">
-        <v>119.38</v>
+        <v>147.16</v>
       </c>
       <c r="G34" t="n">
-        <v>147.68</v>
+        <v>182.05</v>
       </c>
       <c r="H34" t="n">
-        <v>90.31</v>
+        <v>70.61</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>3.49</v>
+        <v>-0.06</v>
       </c>
       <c r="K34" t="n">
-        <v>3.41</v>
+        <v>-0.03</v>
       </c>
       <c r="L34" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M34" t="n">
-        <v>0.12</v>
+        <v>-0.01</v>
       </c>
       <c r="N34" t="n">
-        <v>16206255</v>
+        <v>17340035</v>
       </c>
       <c r="O34" t="n">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.7</v>
+        <v>0.68</v>
       </c>
       <c r="Q34" t="n">
-        <v>1905045376</v>
+        <v>2486212864</v>
       </c>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
-          <t>允许建仓</t>
+          <t>仅跟踪</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>明确吸筹</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -3365,73 +3337,73 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PACS</t>
+          <t>TSEM</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>41.27</v>
+        <v>121.3</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>40.65 - 41.52</t>
+          <t>119.48 - 122.03</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>41.52</v>
+        <v>122.03</v>
       </c>
       <c r="F35" t="n">
-        <v>40.03</v>
+        <v>117.66</v>
       </c>
       <c r="G35" t="n">
-        <v>49.52</v>
+        <v>145.56</v>
       </c>
       <c r="H35" t="n">
-        <v>98.36</v>
+        <v>95.75</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.36</v>
+        <v>-0.02</v>
       </c>
       <c r="K35" t="n">
-        <v>2.2</v>
+        <v>-0.04</v>
       </c>
       <c r="L35" t="n">
-        <v>0.31</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M35" t="n">
-        <v>0.22</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N35" t="n">
-        <v>156615144</v>
+        <v>112123800</v>
       </c>
       <c r="O35" t="n">
-        <v>0.28</v>
+        <v>0.74</v>
       </c>
       <c r="P35" t="n">
-        <v>0.95</v>
+        <v>-0.06</v>
       </c>
       <c r="Q35" t="n">
-        <v>5968603136</v>
+        <v>13635375104</v>
       </c>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr">
         <is>
-          <t>允许建仓</t>
+          <t>仅跟踪</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>明确吸筹</t>
+          <t>底部试探</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>trend_pullback</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
@@ -3448,68 +3420,68 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SII</t>
+          <t>TER</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>105.59</v>
+        <v>224.36</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>104.01 - 106.22</t>
+          <t>220.99 - 225.71</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>106.22</v>
+        <v>225.71</v>
       </c>
       <c r="F36" t="n">
-        <v>102.42</v>
+        <v>217.63</v>
       </c>
       <c r="G36" t="n">
-        <v>126.71</v>
+        <v>269.23</v>
       </c>
       <c r="H36" t="n">
-        <v>93.12</v>
+        <v>92.64</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="L36" t="n">
         <v>0.04</v>
       </c>
-      <c r="K36" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.4</v>
-      </c>
       <c r="M36" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="N36" t="n">
-        <v>25786258</v>
+        <v>156608303</v>
       </c>
       <c r="O36" t="n">
-        <v>0.57</v>
+        <v>1.07</v>
       </c>
       <c r="P36" t="n">
-        <v>1.56</v>
+        <v>0.48</v>
       </c>
       <c r="Q36" t="n">
-        <v>2585072384</v>
+        <v>31639726080</v>
       </c>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr">
         <is>
-          <t>允许建仓</t>
+          <t>仅跟踪</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>明确吸筹</t>
+          <t>控盘减弱预警</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -3531,73 +3503,77 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>HIG</t>
+          <t>CMI</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>136.26</v>
+        <v>562.1799999999999</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>134.22 - 137.08</t>
+          <t>553.75 - 565.55</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>137.08</v>
+        <v>565.55</v>
       </c>
       <c r="F37" t="n">
-        <v>132.17</v>
+        <v>545.3099999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>163.51</v>
+        <v>674.62</v>
       </c>
       <c r="H37" t="n">
-        <v>70.06999999999999</v>
+        <v>87.44</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0.41</v>
+        <v>-0.34</v>
       </c>
       <c r="K37" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="N37" t="n">
+        <v>138036253</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="P37" t="n">
         <v>0.47</v>
       </c>
-      <c r="L37" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N37" t="n">
-        <v>278900292</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0.95</v>
-      </c>
       <c r="Q37" t="n">
-        <v>38967947264</v>
-      </c>
-      <c r="R37" t="inlineStr"/>
+        <v>75010277376</v>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>允许建仓</t>
+          <t>仅跟踪</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>92.76000000000001</v>
+        <v>0</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>明确吸筹</t>
+          <t>控盘减弱预警</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
@@ -3614,76 +3590,1171 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RVLV</t>
+          <t>FTI</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>30.8</v>
+        <v>49.8</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>30.34 - 30.98</t>
+          <t>49.05 - 50.10</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>30.98</v>
+        <v>50.1</v>
       </c>
       <c r="F38" t="n">
-        <v>29.87</v>
+        <v>48.31</v>
       </c>
       <c r="G38" t="n">
-        <v>36.96</v>
+        <v>59.76</v>
       </c>
       <c r="H38" t="n">
-        <v>75.62</v>
+        <v>85.22</v>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>0.93</v>
+        <v>0.13</v>
       </c>
       <c r="K38" t="n">
-        <v>0.92</v>
+        <v>0.19</v>
       </c>
       <c r="L38" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="M38" t="n">
-        <v>0.12</v>
+        <v>0.29</v>
       </c>
       <c r="N38" t="n">
-        <v>40415438</v>
+        <v>404520086</v>
       </c>
       <c r="O38" t="n">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="P38" t="n">
-        <v>1.06</v>
+        <v>0.7</v>
       </c>
       <c r="Q38" t="n">
-        <v>2128613504</v>
+        <v>18351886336</v>
       </c>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr">
         <is>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>控盘减弱预警</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>strong_uptrend</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>204.25</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>201.19 - 205.48</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>205.48</v>
+      </c>
+      <c r="F39" t="n">
+        <v>198.13</v>
+      </c>
+      <c r="G39" t="n">
+        <v>245.1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>78.31</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N39" t="n">
+        <v>250106129</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>51089178624</v>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>控盘减弱预警</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>uptrend</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>71.03</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>69.96 - 71.46</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>71.45999999999999</v>
+      </c>
+      <c r="F40" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="G40" t="n">
+        <v>85.23999999999999</v>
+      </c>
+      <c r="H40" t="n">
+        <v>71.03</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="N40" t="n">
+        <v>652962768</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>46262411264</v>
+      </c>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>量价中性</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>strong_uptrend</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>TXNM</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>58.96</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>58.08 - 59.31</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>59.31</v>
+      </c>
+      <c r="F41" t="n">
+        <v>57.19</v>
+      </c>
+      <c r="G41" t="n">
+        <v>70.75</v>
+      </c>
+      <c r="H41" t="n">
+        <v>66.53</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N41" t="n">
+        <v>108921356</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>6426360320</v>
+      </c>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>量价中性</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>uptrend</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>WS</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>36.94</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>36.39 - 37.16</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>37.16</v>
+      </c>
+      <c r="F42" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="G42" t="n">
+        <v>44.33</v>
+      </c>
+      <c r="H42" t="n">
+        <v>72.44</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N42" t="n">
+        <v>49857111</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="P42" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1819784576</v>
+      </c>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>100</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>明确吸筹</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>uptrend</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>NEM</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>112.96</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>111.27 - 113.64</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>113.64</v>
+      </c>
+      <c r="F43" t="n">
+        <v>109.57</v>
+      </c>
+      <c r="G43" t="n">
+        <v>135.55</v>
+      </c>
+      <c r="H43" t="n">
+        <v>95.48999999999999</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1091262981</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>119088422912</v>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Basic Materials</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>100</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>明确吸筹</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>strong_uptrend</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ORLA</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>14.53 - 14.84</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="F44" t="n">
+        <v>14.31</v>
+      </c>
+      <c r="G44" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="H44" t="n">
+        <v>92.27</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N44" t="n">
+        <v>339896220</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4753448448</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Basic Materials</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>100</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>明确吸筹</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>strong_uptrend</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>KALU</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>126.82</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>124.92 - 127.58</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>127.58</v>
+      </c>
+      <c r="F45" t="n">
+        <v>123.01</v>
+      </c>
+      <c r="G45" t="n">
+        <v>152.18</v>
+      </c>
+      <c r="H45" t="n">
+        <v>90.20999999999999</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N45" t="n">
+        <v>16206255</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P45" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1905045376</v>
+      </c>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>100</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>明确吸筹</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>strong_uptrend</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>332.73</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>327.74 - 334.73</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>334.73</v>
+      </c>
+      <c r="F46" t="n">
+        <v>322.75</v>
+      </c>
+      <c r="G46" t="n">
+        <v>399.28</v>
+      </c>
+      <c r="H46" t="n">
+        <v>89.77</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="N46" t="n">
+        <v>5407000000</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4004106469376</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>100</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>明确吸筹</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>uptrend</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>AIZ</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>238.23</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>234.66 - 239.66</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>239.66</v>
+      </c>
+      <c r="F47" t="n">
+        <v>231.08</v>
+      </c>
+      <c r="G47" t="n">
+        <v>285.88</v>
+      </c>
+      <c r="H47" t="n">
+        <v>69.88</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N47" t="n">
+        <v>50081110</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>12205579264</v>
+      </c>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>100</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>明确吸筹</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>uptrend</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>FLS</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>73.84</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>72.73 - 74.28</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>74.28</v>
+      </c>
+      <c r="F48" t="n">
+        <v>71.62</v>
+      </c>
+      <c r="G48" t="n">
+        <v>88.61</v>
+      </c>
+      <c r="H48" t="n">
+        <v>80.67</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="N48" t="n">
+        <v>127115509</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>9289462784</v>
+      </c>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>95.83</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>明确吸筹</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>uptrend</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>RVLV</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>30.62</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>30.16 - 30.80</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F49" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="G49" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="H49" t="n">
+        <v>75.04000000000001</v>
+      </c>
+      <c r="I49" t="n">
+        <v>4</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N49" t="n">
+        <v>40415438</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2128613504</v>
+      </c>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr">
+        <is>
           <t>回撤建仓</t>
         </is>
       </c>
-      <c r="T38" t="n">
+      <c r="T49" t="n">
         <v>100</v>
       </c>
-      <c r="U38" t="inlineStr">
+      <c r="U49" t="inlineStr">
         <is>
           <t>强趋势回撤</t>
         </is>
       </c>
-      <c r="V38" t="inlineStr">
+      <c r="V49" t="inlineStr">
         <is>
           <t>strong_uptrend</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr">
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>HIG</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>135.24</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>133.21 - 136.05</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>136.05</v>
+      </c>
+      <c r="F50" t="n">
+        <v>131.18</v>
+      </c>
+      <c r="G50" t="n">
+        <v>162.29</v>
+      </c>
+      <c r="H50" t="n">
+        <v>67.37</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N50" t="n">
+        <v>278900292</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>38967947264</v>
+      </c>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>回撤建仓</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>89.52</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>强趋势回撤</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>trend_pullback</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>209.76</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>206.61 - 211.02</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>211.02</v>
+      </c>
+      <c r="F51" t="n">
+        <v>203.47</v>
+      </c>
+      <c r="G51" t="n">
+        <v>251.71</v>
+      </c>
+      <c r="H51" t="n">
+        <v>69.02</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N51" t="n">
+        <v>230203873</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>48167755776</v>
+      </c>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>回撤建仓</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>72.95999999999999</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>强趋势回撤</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>strong_uptrend</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
         <is>
           <t>机构偏多</t>
         </is>

--- a/swing_strategy_vix_sim_20260113.xlsx
+++ b/swing_strategy_vix_sim_20260113.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -776,7 +776,7 @@
         <v>0.64</v>
       </c>
       <c r="Q4" t="n">
-        <v>4548506681344</v>
+        <v>4502734241792</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>0.51</v>
       </c>
       <c r="Q5" t="n">
-        <v>340081606656</v>
+        <v>338127978496</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>0.33</v>
       </c>
       <c r="Q7" t="n">
-        <v>14067499008</v>
+        <v>13878048768</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>多头拥挤</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
         <v>-0.46</v>
       </c>
       <c r="Q27" t="n">
-        <v>590313291776</v>
+        <v>588072222720</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -4314,7 +4314,7 @@
         <v>0.32</v>
       </c>
       <c r="Q46" t="n">
-        <v>4004106469376</v>
+        <v>4016661331968</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
